--- a/docs/5u24/doc/_downloads/nablarch5u19-releasenote.xlsx
+++ b/docs/5u24/doc/_downloads/nablarch5u19-releasenote.xlsx
@@ -1,76 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE390B5-D1F9-4B6A-BC4C-8C2BEA3D6167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4556D3C9-589B-40FE-8227-F0285A13F254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="-120" windowWidth="27930" windowHeight="16440" tabRatio="678" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="678" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="分類" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="5u19" sheetId="2" r:id="rId2"/>
-    <sheet name="JSON読み取り失敗ケース" sheetId="4" r:id="rId3"/>
-    <sheet name="Content-Typeの互換性維持方法" sheetId="6" r:id="rId4"/>
-    <sheet name="環境依存値の設定方法" sheetId="5" r:id="rId5"/>
-    <sheet name="バージョンアップ手順" sheetId="3" r:id="rId6"/>
-    <sheet name="標準プラグインの変更点" sheetId="7" r:id="rId7"/>
+    <sheet name="5u19" sheetId="2" r:id="rId1"/>
+    <sheet name="JSON読み取り失敗ケース" sheetId="4" r:id="rId2"/>
+    <sheet name="Content-Typeの互換性維持方法" sheetId="6" r:id="rId3"/>
+    <sheet name="環境依存値の設定方法" sheetId="5" r:id="rId4"/>
+    <sheet name="バージョンアップ手順" sheetId="3" r:id="rId5"/>
+    <sheet name="標準プラグインの変更点" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'5u19'!$A$4:$O$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'5u19'!$A$1:$O$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">JSON読み取り失敗ケース!$A$1:$P$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">バージョンアップ手順!$A$1:$C$7</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">環境依存値の設定方法!$A$1:$AI$13</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'5u19'!$4:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">標準プラグインの変更点!$10:$10</definedName>
-    <definedName name="Z_0EF4A104_C8C5_4BB8_9459_A34A36EE0DB2_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$5:$O$27</definedName>
-    <definedName name="Z_0F2DE67E_9B48_4DF8_A75E_2BDBD83B073C_.wvu.PrintArea" localSheetId="6" hidden="1">標準プラグインの変更点!$A$1:$I$107</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$6:$O$27</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintArea" localSheetId="1" hidden="1">'5u19'!$A$1:$O$27</definedName>
-    <definedName name="Z_1CBAE259_1229_4D5F_B6AB_B1E571AC50CF_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u19'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.Cols" localSheetId="1" hidden="1">'5u19'!#REF!</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintArea" localSheetId="1" hidden="1">'5u19'!$A$1:$M$27</definedName>
-    <definedName name="Z_1CF83959_4781_4101_B45D_D5CA949F0DDD_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u19'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Cols" localSheetId="1" hidden="1">'5u19'!#REF!</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.PrintArea" localSheetId="1" hidden="1">'5u19'!$C$6:$M$27</definedName>
-    <definedName name="Z_24AE1C94_1117_4587_89A5_5409FBA350B6_.wvu.Rows" localSheetId="1" hidden="1">'5u19'!#REF!</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$6:$O$27</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintArea" localSheetId="1" hidden="1">'5u19'!$A$1:$O$27</definedName>
-    <definedName name="Z_2B633146_467C_4617_ADD5_FD9A1AD5DEBA_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u19'!#REF!</definedName>
-    <definedName name="Z_40B3BD4E_A90D_4626_81B6_C0483900AF4D_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$E$1:$E$27</definedName>
-    <definedName name="Z_44808EAA_6A97_40F3_8667_B3675ADED7A3_.wvu.PrintArea" localSheetId="6" hidden="1">標準プラグインの変更点!$A$1:$I$107</definedName>
-    <definedName name="Z_4655032F_EDA3_424D_B394_37A8E68C4904_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$6:$O$27</definedName>
-    <definedName name="Z_4D2933E2_6487_444C_A6EE_CA2B07EBFF56_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$E$1:$E$27</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$6:$O$27</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintArea" localSheetId="1" hidden="1">'5u19'!$A$1:$O$27</definedName>
-    <definedName name="Z_4FDD670D_9AB4_47DD_9C5F_36375E23E10E_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u19'!#REF!</definedName>
-    <definedName name="Z_70553CE3_733A_4433_9EF9_07365707E65C_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$6:$O$27</definedName>
-    <definedName name="Z_75534C82_75DB_44B7_B1F4_76A899C57CD8_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$6:$O$27</definedName>
-    <definedName name="Z_7E72A7FA_5272_4028_BF60_AC28CB0FDCEF_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$5:$O$27</definedName>
-    <definedName name="Z_88EDDA8D_68B8_4E64_A52A_39C4E90703A2_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$E$1:$E$27</definedName>
-    <definedName name="Z_96DBAE9A_1F7D_4BD5_957A_BAABE8078AFA_.wvu.PrintArea" localSheetId="6" hidden="1">標準プラグインの変更点!$A$1:$I$107</definedName>
-    <definedName name="Z_97E28DB9_53A7_48FD_8211_F8091EFD672D_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$5:$O$27</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$E$1:$E$27</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintArea" localSheetId="1" hidden="1">'5u19'!$A$1:$O$27</definedName>
-    <definedName name="Z_992E9273_D9A1_4611_8838_21D3D4051D5D_.wvu.PrintTitles" localSheetId="1" hidden="1">'5u19'!#REF!</definedName>
-    <definedName name="Z_9A22F025_86BB_4FF2_93A1_C23747445003_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$6:$O$27</definedName>
-    <definedName name="Z_AEBFA514_5783_483E_9999_1A19A29D6033_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$5:$O$27</definedName>
-    <definedName name="Z_B0F4C8B8_30A7_47A3_9D99_1B2817E1C261_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$5:$O$5</definedName>
-    <definedName name="Z_B411F40C_A56F_482D_B60C_F67E5DEF671D_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$5:$O$27</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Cols" localSheetId="1" hidden="1">'5u19'!#REF!</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.PrintArea" localSheetId="1" hidden="1">'5u19'!$C$6:$M$27</definedName>
-    <definedName name="Z_B578103C_D023_4A55_BFED_D8473FB33B61_.wvu.Rows" localSheetId="1" hidden="1">'5u19'!#REF!</definedName>
-    <definedName name="Z_B98E9A70_C592_47CF_A3E9_FBB4A91609B9_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$6:$O$27</definedName>
-    <definedName name="Z_C8533345_E8EC_44D7_B9B9_D1614D468D93_.wvu.PrintArea" localSheetId="6" hidden="1">標準プラグインの変更点!$A$1:$I$107</definedName>
-    <definedName name="Z_CB63417C_4A99_4348_B0FA_FE9F3E662D2A_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$6:$O$27</definedName>
-    <definedName name="Z_E48E441D_FA69_4C3B_8C53_088671C9AB11_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$5:$O$27</definedName>
-    <definedName name="Z_EA0083FB_5437_48A3_9D11_4029C7E5B1F9_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$5:$O$27</definedName>
-    <definedName name="Z_EA675E32_024D_4164_ACA4_4EB3E1B601BC_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$6:$O$27</definedName>
-    <definedName name="Z_EF0F843B_318F_4282_AA07_302A6B0BD46D_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$6:$O$27</definedName>
-    <definedName name="Z_F9C6D7B5_0301_4534_A6AE_FF0B6DC60A9A_.wvu.FilterData" localSheetId="1" hidden="1">'5u19'!$A$5:$O$27</definedName>
-    <definedName name="機能分類">分類!$B$4:$B$71</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'5u19'!$A$1:$O$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">JSON読み取り失敗ケース!$A$1:$P$65</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">バージョンアップ手順!$A$1:$C$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">環境依存値の設定方法!$A$1:$AI$13</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'5u19'!$4:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">標準プラグインの変更点!$10:$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -87,25 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="448">
-  <si>
-    <t>開発ガイド</t>
-  </si>
-  <si>
-    <t>環境構築ガイド</t>
-  </si>
-  <si>
-    <t>ドキュメント規約</t>
-  </si>
-  <si>
-    <t>設計書フォーマット</t>
-  </si>
-  <si>
-    <t>コーディング規約</t>
-  </si>
-  <si>
-    <t>業務機能サンプル</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="380">
   <si>
     <t>参照先</t>
     <rPh sb="0" eb="2">
@@ -114,237 +48,21 @@
     <rPh sb="2" eb="3">
       <t>サキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>拡張モジュールサンプル</t>
-  </si>
-  <si>
-    <t>設計標準</t>
-  </si>
-  <si>
-    <t>設定ファイル</t>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>分類</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>ログ出力</t>
-  </si>
-  <si>
-    <t>リポジトリ</t>
-  </si>
-  <si>
-    <t>トランザクション管理機能</t>
-  </si>
-  <si>
-    <t>データベースアクセス(検索、更新、登録、削除)機能</t>
-  </si>
-  <si>
-    <t>静的データのキャッシュ</t>
-  </si>
-  <si>
-    <t>日付の管理機能</t>
-  </si>
-  <si>
-    <t>メッセージ</t>
-  </si>
-  <si>
-    <t>バリデーションとEntityの生成</t>
-  </si>
-  <si>
-    <t>汎用データフォーマット機能</t>
-  </si>
-  <si>
-    <t>同一スレッド内でのデータ共有(スレッドコンテキスト)</t>
-  </si>
-  <si>
-    <t>FWユーティリティ</t>
-  </si>
-  <si>
-    <t>FW標準ハンドラ</t>
-  </si>
-  <si>
-    <t>共通アーキテクチャ</t>
-  </si>
-  <si>
-    <t>データリーダ</t>
-  </si>
-  <si>
-    <t>国際化機能</t>
-  </si>
-  <si>
-    <t>メッセージング実行制御基盤</t>
-  </si>
-  <si>
-    <t>画面オンライン実行制御基盤</t>
-  </si>
-  <si>
-    <t>バッチ実行制御基盤</t>
-  </si>
-  <si>
-    <t>ファイルダウンロード</t>
-  </si>
-  <si>
-    <t>ファイルアップロード</t>
-  </si>
-  <si>
-    <t>開閉局</t>
-  </si>
-  <si>
-    <t>コード管理</t>
-  </si>
-  <si>
-    <t>日付ユーティリティ</t>
-  </si>
-  <si>
-    <t>暗号化機能</t>
-  </si>
-  <si>
-    <t>排他制御機能</t>
-  </si>
-  <si>
-    <t>採番機能</t>
-  </si>
-  <si>
-    <t>認可</t>
-  </si>
-  <si>
-    <t>画面用排他制御機能</t>
-  </si>
-  <si>
-    <t>カスタムタグ</t>
-  </si>
-  <si>
-    <t>共通コンポーネントで共通使用するユーティリティ</t>
-  </si>
-  <si>
-    <t>画面用共通機能</t>
-  </si>
-  <si>
-    <t>共通ハンドラ</t>
-  </si>
-  <si>
-    <t>画面用共通ハンドラ</t>
-  </si>
-  <si>
-    <t>I/O関連共通機能</t>
-  </si>
-  <si>
-    <t>メール</t>
-  </si>
-  <si>
-    <t>ワークフロー</t>
-  </si>
-  <si>
-    <t>その他コード不備</t>
-  </si>
-  <si>
-    <t>自動テストフレームワーク</t>
-  </si>
-  <si>
-    <t>HTML構文チェックツール</t>
-  </si>
-  <si>
-    <t>JSP静的解析ツール</t>
-  </si>
-  <si>
-    <t>リクエスト単体テストデータ作成ツール</t>
-  </si>
-  <si>
-    <t>Java静的解析ツール</t>
-  </si>
-  <si>
-    <t>チュートリアル用コンテンツ</t>
-  </si>
-  <si>
-    <t>NablarchToolbox</t>
-  </si>
-  <si>
-    <t>画面開発ツール</t>
-  </si>
-  <si>
-    <t>業務画面テンプレート</t>
-  </si>
-  <si>
-    <t>UI部品ウィジェット</t>
-  </si>
-  <si>
-    <t>JavaScript UI部品</t>
-  </si>
-  <si>
-    <t>CSSフレームワーク</t>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>工程・WBS・成果物定義</t>
-  </si>
-  <si>
-    <t>ツール統合</t>
-  </si>
-  <si>
-    <t>各種標準追加・見直し</t>
-  </si>
-  <si>
-    <t>CTS（変更管理）</t>
-  </si>
-  <si>
-    <t>ADD（ダッシュボード）</t>
-  </si>
-  <si>
-    <t>Capsule-T</t>
-  </si>
-  <si>
-    <t>機能分類</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>画面用Form自動生成機能</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイセイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>設計書表示機能</t>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>リリース
@@ -352,14 +70,14 @@
     <rPh sb="5" eb="7">
       <t>クブン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>■バージョンアップ手順</t>
     <rPh sb="9" eb="11">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>適用手順</t>
@@ -369,22 +87,22 @@
     <rPh sb="2" eb="4">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>アプリケーションフレームワーク</t>
   </si>
   <si>
     <t>コンテンツ</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>No.</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>修正後のバージョン
@@ -395,7 +113,7 @@
     <rPh sb="2" eb="3">
       <t>アト</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>FBシステム
@@ -404,7 +122,7 @@
     <rPh sb="11" eb="13">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>システムへの
@@ -416,7 +134,7 @@
     <rPh sb="10" eb="13">
       <t>カノウセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>システムへの影響の可能性の内容と対処</t>
@@ -432,51 +150,51 @@
     <rPh sb="16" eb="18">
       <t>タイショ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>mavenのビルドを再実行する</t>
     <rPh sb="10" eb="13">
       <t>サイジッコウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>モジュール</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Nablarch</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>オブジェクトコード、ソースコード</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>本リリースの適用手順は、次の通りです。</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>No</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>不具合の起因バージョン
 （※2）</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>変更</t>
     <rPh sb="0" eb="2">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>JIRA
 (※5)</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>-</t>
@@ -486,34 +204,34 @@
   </si>
   <si>
     <t>アダプタ</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>解説書</t>
     <rPh sb="0" eb="3">
       <t>カイセツショ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>テスティングフレームワーク</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ソースコード</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ブランクプロジェクト</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <r>
@@ -532,15 +250,15 @@
   </si>
   <si>
     <t>■Nablarch 5u19 リリースノート</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>5u18からの変更点を記載しています。</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-388</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Example</t>
@@ -551,28 +269,28 @@
     <rPh sb="0" eb="11">
       <t>ハンヨウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1.0.0</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-core-dataformat 1.3.1</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>15788
 15789</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-391</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1.4.0</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">汎用データフォーマットのJSONを使用して概要欄の③、④に該当する値を扱うアプリケーションに影響があります。
@@ -581,11 +299,11 @@
     <rPh sb="112" eb="114">
       <t>ガイトウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>①配列が入れ子かつ、内部の配列がオブジェクトの最後の項目でない場合、実行時例外が発生する。</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>以下のような構造で実行時例外が発生する。</t>
@@ -604,7 +322,7 @@
     <rPh sb="15" eb="17">
       <t>ハッセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>":"を値に持つ項目より後に項目がある場合は例外は発生しない。</t>
@@ -632,18 +350,18 @@
     <rPh sb="25" eb="27">
       <t>ハッセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>④配列の値が"}"、"["のいずれか1文字の場合、該当する配列の要素が読み取られない。</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>　空のオブジェクトになる。</t>
     <rPh sb="1" eb="2">
       <t>カラ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>←NG 例外が発生する。</t>
@@ -653,7 +371,7 @@
     <rPh sb="7" eb="11">
       <t>ハッ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>←NG 例外が発生する。</t>
@@ -663,7 +381,7 @@
     <rPh sb="7" eb="9">
       <t>ハッセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>←OK 例外は発生せず記述した通りに読み取られる。</t>
@@ -682,7 +400,7 @@
     <rPh sb="18" eb="19">
       <t>ヨ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>←NG keyも"{"も読み取られない。</t>
@@ -692,7 +410,7 @@
     <rPh sb="14" eb="15">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>←NG key1の項目だけ読み取られる。</t>
@@ -705,7 +423,7 @@
     <rPh sb="15" eb="16">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>←OK key1～key3まで記述した通りに読み取られる。</t>
@@ -721,7 +439,7 @@
     <rPh sb="24" eb="28">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>←NG keyの値は空配列として読み取られる。</t>
@@ -740,7 +458,7 @@
     <rPh sb="18" eb="19">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>←NG keyの値は"value"だけを要素にもつ配列として読み取られる。</t>
@@ -756,35 +474,35 @@
     <rPh sb="30" eb="36">
       <t>ヨ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Micrometerアダプタ</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-387</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u19/doc/application_framework/adaptors/micrometer_adaptor.html</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>システムリポジトリ</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-fw-standalone 1.4.0</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>5u18</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-393</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">ウェブアプリケーション(及びRESTfulウェブサービス)
@@ -792,21 +510,21 @@
     <rPh sb="12" eb="13">
       <t>オヨ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>不具合</t>
     <rPh sb="0" eb="3">
       <t>フグアイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Azure 対応</t>
     <rPh sb="6" eb="8">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Azure の Application Insights にカスタムメトリクスを送信できるようにするため、クラスやガイドの追加を行いました。</t>
@@ -819,42 +537,42 @@
     <rPh sb="64" eb="65">
       <t>オコナ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-micrometer-adaptor 1.1.0</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-395</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-397</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>「」</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-402</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-399</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>システムリポジトリ</t>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u19/doc/application_framework/application_framework/libraries/repository.html#repository-user-environment-configuration</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-core-repository 1.6.0</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>環境依存値の動作後方互換性維持方法</t>
@@ -873,7 +591,7 @@
     <rPh sb="15" eb="17">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>存在しない環境依存値をコンポーネント定義から参照した場合に</t>
@@ -892,7 +610,7 @@
     <rPh sb="26" eb="28">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>◆設定方法</t>
@@ -902,7 +620,7 @@
     <rPh sb="3" eb="5">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>以下の値を追記する。</t>
@@ -915,28 +633,28 @@
     <rPh sb="5" eb="7">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch.diContainer.allowEmptyValue=true</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-396</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">RESTfulウェブサービスプロジェクト
 コンテナ用RESTfulウェブサービスプロジェクト
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>全てのブランクプロジェクト</t>
     <rPh sb="0" eb="1">
       <t>スベ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>環境設定ファイルの拡張子を".properties"に統一</t>
@@ -952,15 +670,15 @@
     <rPh sb="27" eb="29">
       <t>トウイツ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-394</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-403</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Content-Typeの互換性維持方法</t>
@@ -973,7 +691,7 @@
     <rPh sb="18" eb="20">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Bodyが空の場合に自動でContent-Typeにtext/plain;charset=UTF-8を付与する方法を以下に示します。</t>
@@ -998,7 +716,7 @@
     <rPh sb="61" eb="62">
       <t>シメ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>JaxRsResponseHandlerのコンポーネント定義から、setContentTypeForResponseWithNoBodyプロパティを削除してください。このプロパティは廃止になりました。</t>
@@ -1008,7 +726,7 @@
     <rPh sb="91" eb="93">
       <t>ハイシ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>◆Content-Typeの互換性維持の設定方法</t>
@@ -1024,7 +742,7 @@
     <rPh sb="22" eb="24">
       <t>ホウホウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>プロジェクトの環境設定ファイル（common.propertiesまたはcommon.config）に</t>
@@ -1034,34 +752,34 @@
     <rPh sb="9" eb="11">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>JSPカスタムタグ</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-fw-web-tag 1.3.0</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u19/doc/application_framework/application_framework/libraries/tag.html#dynamic-attribute</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-398</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>webConfigコンポーネントを定義し、addDefaultContentTypeForNoBodyResponseプロパティにtrueを設定してください。</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>クラウドネイティブ対応</t>
     <rPh sb="9" eb="11">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>AWS・Azureでの分散トレーシング方法を追記</t>
@@ -1074,15 +792,15 @@
     <rPh sb="22" eb="24">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>UI開発基盤用プロジェクトテンプレート</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-383</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>稼働環境</t>
@@ -1092,7 +810,7 @@
     <rPh sb="2" eb="4">
       <t>カンキョウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>アプリケーションフレームワークのテスト環境を更新</t>
@@ -1102,7 +820,7 @@
     <rPh sb="22" eb="24">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>バッチアプリケーション
@@ -1111,11 +829,11 @@
     <rPh sb="35" eb="37">
       <t>シヨウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-400</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>JSONの読み取りに失敗する問題を修正</t>
@@ -1131,7 +849,7 @@
     <rPh sb="17" eb="19">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>レスポンスボディが空の場合に自動でContent-Typeを設定しないように修正</t>
@@ -1150,11 +868,11 @@
     <rPh sb="38" eb="40">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>jackson-databindのバージョンアップ</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>メトリクスを収集するための機能を追加</t>
@@ -1167,11 +885,11 @@
     <rPh sb="16" eb="18">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>JUnit4バージョンアップ</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>コンポーネント定義で指定した環境依存値が存在しない場合例外を送出するように修正</t>
@@ -1199,7 +917,7 @@
     <rPh sb="37" eb="39">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>任意の属性を使用できるように修正</t>
@@ -1215,7 +933,7 @@
     <rPh sb="14" eb="16">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>list要素に設定できる値の型に関する制約を追記</t>
@@ -1237,7 +955,7 @@
     <rPh sb="22" eb="24">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">list要素の値の型には文字列またはJava Beansオブジェクトの設定が可能ですが、解説書に明記されていなかったため追記しました。
@@ -1260,7 +978,7 @@
     <rPh sb="60" eb="62">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">マイクロサービスアーキテクチャを構築する際、分散トレーシングは必須の要件となります。シェアの高いAWSとAzureそれぞれでNablarchを使ったアプリケーションで分散トレーシングを実現するためのガイドを追記しました。
@@ -1295,14 +1013,14 @@
     <rPh sb="103" eb="105">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>あり(開発)</t>
     <rPh sb="3" eb="5">
       <t>カイハツ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">テスティングフレームワークではウェブアプリケーションのリクエスト単体テスト時にレスポンスをダンプする機能があります。この機能では、Content-Typeから抽出したMIMEタイプのサブタイプをダンプファイルの拡張子に使用します。
@@ -1338,7 +1056,7 @@
     <rPh sb="203" eb="204">
       <t>ナ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Content-Typeが無いレスポンスのダンプファイルを出力できるように修正</t>
@@ -1351,7 +1069,7 @@
     <rPh sb="37" eb="39">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>HTTP同期応答メッセージ送信処理のリクエスト単体テスト実施方法の記載漏れ追記</t>
@@ -1367,7 +1085,7 @@
     <rPh sb="37" eb="39">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>HTTP同期応答メッセージ送信処理のリクエスト単体テスト実施方法に障害系のテスト実施時に発生する例外の記載が漏れていたため追記しました。</t>
@@ -1407,14 +1125,14 @@
     <rPh sb="61" eb="63">
       <t>ツイキ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>あり(本番)</t>
     <rPh sb="3" eb="5">
       <t>ホンバン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>最後の項目でなければ記述した通りに読み取られる。</t>
@@ -1436,7 +1154,7 @@
     <rPh sb="19" eb="23">
       <t>ト</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>②オブジェクトの最後の項目の値が":"1文字の場合、実行時例外が発生する。</t>
@@ -1446,7 +1164,7 @@
     <rPh sb="11" eb="13">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>③オブジェクトの最後の項目の値が"{"、"}"、"["、"]"のいずれか1文字の場合、該当項目が読み取られない。</t>
@@ -1456,7 +1174,7 @@
     <rPh sb="11" eb="13">
       <t>コウモク</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">任意の属性を出力できるようJSPカスタムタグで動的属性を使用できるようにしました。
@@ -1484,7 +1202,7 @@
     <rPh sb="141" eb="143">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">以下のメトリクスを収集できるようにするため、機能追加を行いました。
@@ -1570,7 +1288,7 @@
     <rPh sb="171" eb="173">
       <t>シュウシュウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>新規開発用テンプレートのjQueryバージョンが古い問題に対応</t>
@@ -1592,7 +1310,7 @@
     <rPh sb="29" eb="31">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>■UI開発基盤（標準プラグイン）の変更点</t>
@@ -1602,7 +1320,7 @@
     <rPh sb="19" eb="20">
       <t>テン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>UI開発基盤の変更内容とプラグインの対応を示します。</t>
@@ -1628,7 +1346,7 @@
   </si>
   <si>
     <t>アップデートする場合は、対象のバージョンから今回のバージョンまでのリリースノートの「UI開発基盤（標準プラグイン）の変更点」を全て確認してバージョンアップを実施してください。</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>標準プラグインの取込方法は、下記を参照ください。</t>
@@ -1654,7 +1372,7 @@
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u18/doc/development_tools/ui_dev/doc/development_environment/update_bundle_plugin.html</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>変更実施
@@ -1665,23 +1383,23 @@
     <rPh sb="2" eb="4">
       <t>ジッシ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>タイトル</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="27"/>
   </si>
   <si>
     <t>標準プラグイン</t>
     <rPh sb="0" eb="2">
       <t>ヒョウジュン</t>
     </rPh>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="27"/>
   </si>
   <si>
     <t>プラグイン
 バージョン</t>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="27"/>
   </si>
   <si>
     <t>プラグインの変更概要</t>
@@ -1691,7 +1409,7 @@
     <rPh sb="8" eb="10">
       <t>ガイヨウ</t>
     </rPh>
-    <phoneticPr fontId="29"/>
+    <phoneticPr fontId="27"/>
   </si>
   <si>
     <t>1.4.2</t>
@@ -1701,7 +1419,7 @@
   </si>
   <si>
     <t>ナローまたはコンパクト表示に対応したスライドするメニューサンプルを追加しました。</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-widget-slide-menu</t>
@@ -1777,12 +1495,12 @@
   </si>
   <si>
     <t>確認ダイアログ表示イベントアクションのディバイス依存不具合に対応</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">確認ダイアログ表示イベントアクションを利用して表示した確認ダイアログにおいて「キャンセル」を選択した場合に、特定のディバイス（iPad,iPhone）でトップナビやフッタが特定のディバイス（iPad,iPhone）でトップナビやフッタが非表示となる不具合に対応しました。
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-widget-event-dialog</t>
@@ -1853,7 +1571,7 @@
     <t xml:space="preserve">他のドメインから新規に画面を開く場合など、他のドメインからアクセスがあった場合に、サブウィンドウ連携機能にてセキュリティの制約に起因したJavaScriptエラーが発生します。
 JavaScriptエラーが発生すると、サブウィンドウ連携機能以外のJavaScriptも動作しなくなってしまうため、エラーが発生しないように対応しました。
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-widget-event-listen</t>
@@ -1885,12 +1603,12 @@
   </si>
   <si>
     <t>UI開発基盤の導入手順外のパターンへの対応</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">解説書に記載しているUI開発基盤の導入手順とは異なりますが、初回ビルド時に既にプラグインが構成管理ツール(Subversion等)に追加済みの場合にもビルドが実行できるように対応しました。
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-dev-tool-uibuild</t>
@@ -1903,7 +1621,7 @@
   </si>
   <si>
     <t>Nablarch標準プラグインの更新手順を追加</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Nablarch標準プラグインの更新手順のガイドを追加しました。</t>
@@ -1959,7 +1677,7 @@
       内容が出力されてしまう。
 上記の事象を解消するためにタグファイル内で設定する変数の
 スコープをページスコープに修正しました。</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1.1.1</t>
@@ -2029,7 +1747,7 @@
     <t xml:space="preserve">event:confirmタグ内において、不要なtype属性が指定されていたため、一部のアプリケーションサーバで、JSPを実行時に実行時エラーが発生していました。
 不要なtype属性を削除しました。
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>confirm.tagのattributeアクションタグに、FQCNでクラス名を記載していないtype属性が存在したため、そのtype属性を除去しました。
@@ -2121,12 +1839,12 @@
   <si>
     <t xml:space="preserve">nablarch-dev-ui_tool-form_gen-core
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">-
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">プラグインを削除
@@ -2183,11 +1901,11 @@
   <si>
     <t xml:space="preserve">nablarch-dev-ui_demo-core
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1.0.1</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">コンテキストメニューからリンクを削除
@@ -2199,11 +1917,11 @@
   </si>
   <si>
     <t>nablarch-dev-ui_demo-config</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>ドキュメントリンクのリソースを削除</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>5u10</t>
@@ -2316,71 +2034,71 @@
   </si>
   <si>
     <t>nablarch-dev-tool-uibuild</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1.1.0</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>JSPの配置場所の変更</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-dev-ui_demo-core-lib</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-dev-ui_test-support</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-template-app_aside</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1.2.0</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-template-app_footer</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-template-app_header</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-template-base</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-template-head</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-template-js_include</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-template-multicol-head</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-template-page</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-widget-event-listen</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-widget-slide-menu</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-ui-development-template</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">resultSetName属性を指定せずにresultNumName属性を指定できない不具合に対応
@@ -2395,15 +2113,15 @@
   </si>
   <si>
     <t>1.1.1</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-dev-ui_demo-core</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1.0.2</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">動作確認用アプリケーションのハンドラ構成を最新化
@@ -2505,7 +2223,7 @@
   <si>
     <t xml:space="preserve">jQueryのバージョンをアップデート
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>UI開発基盤</t>
@@ -2894,7 +2612,7 @@
   <si>
     <t xml:space="preserve">「イベントウィジェット共通部品」と重複するテスト用のindexページがあるため、削除
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>項目内容変更ウィジェット</t>
@@ -2910,7 +2628,7 @@
   </si>
   <si>
     <t>1.0.4</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">依存するjQueryのバージョンを3.3.1から3.4.1に変更
@@ -2925,7 +2643,7 @@
   </si>
   <si>
     <t>1.0.5</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">依存するjQueryのバージョンを3.4.1から3.5.1に変更
@@ -2940,18 +2658,18 @@
   </si>
   <si>
     <t>5u19</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>1.1.3</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-core-applog 1.2.0
 nablarch-fw 1.5.0
 nablarch-fw-jaxrs 1.2.0
 nablarch-micrometer-adaptor 1.1.0</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">nablarch-web 5u19
@@ -2961,12 +2679,12 @@
 nablarch-container-web 5u19
 nablarch-container-jaxrs 5u19
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-fw-web 1.3.0
 nablarch-fw-jaxrs 1.2.0</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-jaxrs 5u19
@@ -2977,11 +2695,11 @@
 nablarch-example-http-messaging 5u19
 nablarch-etl 1.2.4
 nablarch-testing-rest 1.0.1</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-406</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">nablarch-example-batch-ee 5u19
@@ -2991,16 +2709,16 @@
 nablarch-testing-rest 1.0.1
 sql-executor 1.3.0
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-testing 1.3.1</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-ui-development-template 1.1.3
 nablarch-plugins-bundle 1.0.6</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>pom.xmlの&lt;dependencyManagement&gt;セクションに指定されているnablarch-bomのバージョンを5u19に書き換える</t>
@@ -3013,23 +2731,23 @@
     <rPh sb="69" eb="70">
       <t>カ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>RESTfulウェブサービス</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>nablarch-fw-jaxrs 1.2.0</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u19/doc/application_framework/application_framework/handlers/rest/cors_preflight_request_handler.html#cors-preflight-request-handler-setting</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>NAB-407</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>CORSのプリフライトリクエストとして判定する条件を修正</t>
@@ -3042,7 +2760,7 @@
     <rPh sb="26" eb="28">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">以下いずれかの場合に影響があります。
@@ -3113,17 +2831,17 @@
     <rPh sb="253" eb="255">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/5u19/doc/application_framework/application_framework/cloud_native/distributed_tracing/index.html
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/5u19/doc/application_framework/adaptors/micrometer_adaptor.html#azure
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">以下の条件を全て満たす場合に影響があります。
@@ -3216,12 +2934,12 @@
     <rPh sb="164" eb="166">
       <t>セッテイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/5u19/doc/development_tools/testing_framework/guide/development_guide/05_UnitTestGuide/02_RequestUnitTest/http_send_sync.html
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">JSONの形式として正しいにも関わらず、読み取りに失敗するケースがありました。検出されたいずれのケースにおいても、正しくJSONを読み取れるように修正しています。
@@ -3286,7 +3004,7 @@
     <rPh sb="302" eb="304">
       <t>シッパイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>バッチアプリケーションの場合にオブジェクトの廃棄処理が実行されない問題を修正</t>
@@ -3305,7 +3023,7 @@
     <rPh sb="36" eb="38">
       <t>シュウセイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">5u18でアプリケーション終了時にシステムリポジトリのオブジェクトに対する任意の廃棄処理を実行する仕組みを追加しましたが、Nablarchバッチアプリケーションの場合のみ廃棄処理が実行されないという問題があったため対応しました。
@@ -3346,14 +3064,14 @@
     <rPh sb="107" eb="109">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>これまではボディがないレスポンスに対してもContent-Typeに"text/plain;charset=UTF-8"を設定していました。これをボディがないレスポンスにContent-Typeを設定しないように変更しました。
 RESTfulウェブサービスには、すでに5u18で先行して同様の対応が入っています。
 ただし、今回のWebの対応により、後方互換性を維持するための設定をWebのコンポーネントに統合したため、この機能を使っている場合は設定を変更する必要があります。
 後方互換性維持の詳細はContent-Typeの互換性維持方法シートを参照してください。</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">コンポーネント定義で指定した環境依存値が存在しない場合、従来のNablarchでは環境依存値のキーが文字列としてコンポーネントに設定されていました。
@@ -3462,7 +3180,7 @@
     <rPh sb="331" eb="333">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <r>
@@ -3549,12 +3267,12 @@
     <rPh sb="265" eb="267">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">https://nablarch.github.io/docs/5u19/doc/application_framework/application_framework/libraries/repository.html#listmap
 </t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">jackson-databind2.10.5.1未満にXMLのデシリアライズ時にXXEが成立する脆弱性があったため、JAX-RSアダプタとブランクプロジェクトのjackson-databindを脆弱性対応済みのバージョン(2.10.5.1)に変更しました。
@@ -3573,7 +3291,7 @@
     <rPh sb="228" eb="229">
       <t>ツナ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>Nablarchではpropertiesファイルとconfigファイルの2種類の環境設定ファイルが使用できます。推奨はpropertiesファイルですが、ブランクプロジェクトの環境設定ファイルがconfigファイルとなっていたため、propertiesファイルに統一しました。</t>
@@ -3598,7 +3316,7 @@
     <rPh sb="118" eb="120">
       <t>トウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">JUnit 4.13.1未満でUNIX系OSでユニットテストを実行時、JUnitが作成した一時ディレクトリを任意のユーザが参照できる脆弱性があったため、脆弱性対応済みのバージョン(4.13.1)に変更しました。
@@ -3659,7 +3377,7 @@
     <rPh sb="223" eb="225">
       <t>エイキョウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">UI開発基盤を新規導入する際に使用するプロジェクトテンプレートのjQueryバージョンが古かったためjQuery3.5.1にバージョンアップしました。
@@ -3701,7 +3419,7 @@
     <rPh sb="117" eb="119">
       <t>エイキョウ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>5u18までのNablarch同様、WARNINGログを出力して環境依存値のキーを設定値に採用する方法を以下に示します。</t>
@@ -3729,7 +3447,7 @@
     <rPh sb="55" eb="56">
       <t>シメ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <r>
@@ -3796,11 +3514,11 @@
     <rPh sb="30" eb="32">
       <t>コウシン</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>https://nablarch.github.io/docs/5u19/doc/application_framework/application_framework/nablarch/platform.html#id3</t>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>◆5u18のリリースノートNo.6「ボディがないレスポンスにContent-Typeを設定しないように変更」の「システムへの影響の可能性の内容と対処」を実施している場合</t>
@@ -3810,14 +3528,14 @@
     <rPh sb="82" eb="84">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>5u18リリースノート抜粋</t>
     <rPh sb="11" eb="13">
       <t>バッスイ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t xml:space="preserve">プリフライトリクエストと判定する条件は以下をすべて満たすことでした。
@@ -3866,35 +3584,19 @@
     <rPh sb="272" eb="273">
       <t>トオ</t>
     </rPh>
-    <phoneticPr fontId="13"/>
+    <phoneticPr fontId="11"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4284,7 +3986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -4296,7 +3998,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4384,214 +4086,211 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4599,76 +4298,91 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="37" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="37" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="12" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="5" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="56" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4680,28 +4394,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4710,7 +4403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7148,369 +6841,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="B2:B71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B25" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B26" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B27" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B28" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B29" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B30" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B31" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B32" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B34" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B35" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B36" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B37" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B38" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B39" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B40" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B41" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B42" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B43" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B44" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B46" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B47" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B48" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B49" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B50" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B51" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B52" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B53" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B58" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B59" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B60" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B61" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B62" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B63" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B67" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B68" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B69" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B70" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B71" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
@@ -7525,9 +6855,9 @@
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="23" customWidth="1"/>
     <col min="3" max="3" width="4.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="9.625" style="23" customWidth="1"/>
     <col min="5" max="5" width="5.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.125" style="1" customWidth="1"/>
@@ -7537,1443 +6867,1443 @@
     <col min="12" max="13" width="24.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="8.625" style="1" customWidth="1"/>
     <col min="15" max="15" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.375" style="41" customWidth="1"/>
+    <col min="16" max="17" width="9.375" style="38" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:126" s="7" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-    </row>
-    <row r="2" spans="1:126" s="8" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-    </row>
-    <row r="3" spans="1:126" s="9" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="AP3" s="10"/>
-      <c r="DV3" s="11"/>
+    <row r="1" spans="1:126" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+    </row>
+    <row r="2" spans="1:126" s="5" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+    </row>
+    <row r="3" spans="1:126" s="6" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="AP3" s="7"/>
+      <c r="DV3" s="8"/>
     </row>
     <row r="4" spans="1:126" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="91" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="92"/>
-      <c r="C4" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="95" t="s">
+      <c r="A4" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="96"/>
+      <c r="C4" s="90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="90" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="94"/>
+      <c r="K4" s="90" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="88" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="95" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="95" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="95" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="100" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="95" t="s">
-        <v>80</v>
-      </c>
-      <c r="L4" s="95" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" s="97" t="s">
+      <c r="O4" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" spans="1:126" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="97"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="89"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" spans="1:126" ht="21" x14ac:dyDescent="0.15">
+      <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="95" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:126" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="93"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="99"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="12"/>
-    </row>
-    <row r="6" spans="1:126" ht="21" x14ac:dyDescent="0.15">
-      <c r="A6" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="22"/>
-    </row>
-    <row r="7" spans="1:126" s="12" customFormat="1" ht="204" x14ac:dyDescent="0.15">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" s="39">
+      <c r="B6" s="24"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="1:126" s="9" customFormat="1" ht="204" x14ac:dyDescent="0.15">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="36">
         <v>1</v>
       </c>
-      <c r="D7" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>431</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="39" t="s">
+      <c r="D7" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="J7" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="M7" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>108</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="P7" s="28"/>
-    </row>
-    <row r="8" spans="1:126" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A8" s="45"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="39">
+      <c r="G7" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="L7" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="25"/>
+    </row>
+    <row r="8" spans="1:126" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A8" s="42"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="36">
         <f>C7+1</f>
         <v>2</v>
       </c>
-      <c r="D8" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>432</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>433</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="K8" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="L8" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N8" s="39">
+      <c r="D8" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>364</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="36">
         <v>15765</v>
       </c>
-      <c r="O8" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="P8" s="28"/>
-    </row>
-    <row r="9" spans="1:126" s="12" customFormat="1" ht="216" x14ac:dyDescent="0.15">
-      <c r="A9" s="45"/>
-      <c r="B9" s="47"/>
-      <c r="C9" s="39">
+      <c r="O8" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P8" s="25"/>
+    </row>
+    <row r="9" spans="1:126" s="9" customFormat="1" ht="216" x14ac:dyDescent="0.15">
+      <c r="A9" s="42"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="36">
         <f>C8+1</f>
         <v>3</v>
       </c>
-      <c r="D9" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>434</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>414</v>
-      </c>
-      <c r="I9" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="K9" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="L9" s="39" t="s">
-        <v>426</v>
-      </c>
-      <c r="M9" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="N9" s="39">
+      <c r="D9" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>358</v>
+      </c>
+      <c r="M9" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="36">
         <v>15748</v>
       </c>
-      <c r="O9" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="P9" s="28"/>
-    </row>
-    <row r="10" spans="1:126" s="12" customFormat="1" ht="240" x14ac:dyDescent="0.15">
-      <c r="A10" s="45"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="39">
+      <c r="O9" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" s="25"/>
+    </row>
+    <row r="10" spans="1:126" s="9" customFormat="1" ht="240" x14ac:dyDescent="0.15">
+      <c r="A10" s="42"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="36">
         <f>C9+1</f>
         <v>4</v>
       </c>
-      <c r="D10" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>435</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>189</v>
-      </c>
-      <c r="L10" s="44" t="s">
-        <v>436</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="N10" s="39">
+      <c r="D10" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N10" s="36">
         <v>15745</v>
       </c>
-      <c r="O10" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="P10" s="28"/>
-    </row>
-    <row r="11" spans="1:126" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A11" s="45"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="39">
+      <c r="O10" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="25"/>
+    </row>
+    <row r="11" spans="1:126" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A11" s="42"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="36">
         <f t="shared" ref="C11:C14" si="0">C10+1</f>
         <v>5</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>193</v>
-      </c>
-      <c r="H11" s="39" t="s">
-        <v>162</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="K11" s="39" t="s">
+      <c r="D11" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M11" s="39" t="s">
-        <v>163</v>
-      </c>
-      <c r="N11" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="O11" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="P11" s="28"/>
-    </row>
-    <row r="12" spans="1:126" s="12" customFormat="1" ht="204" x14ac:dyDescent="0.15">
-      <c r="A12" s="45"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="39">
+      <c r="I11" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="25"/>
+    </row>
+    <row r="12" spans="1:126" s="9" customFormat="1" ht="204" x14ac:dyDescent="0.15">
+      <c r="A12" s="42"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="36">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D12" s="39" t="s">
-        <v>421</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>425</v>
-      </c>
-      <c r="G12" s="39" t="s">
-        <v>447</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>422</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="L12" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>423</v>
-      </c>
-      <c r="N12" s="39">
+      <c r="D12" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>379</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="N12" s="36">
         <v>15817</v>
       </c>
-      <c r="O12" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="P12" s="28"/>
-    </row>
-    <row r="13" spans="1:126" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="39">
+      <c r="O12" s="36" t="s">
+        <v>356</v>
+      </c>
+      <c r="P12" s="25"/>
+    </row>
+    <row r="13" spans="1:126" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="36">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D13" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>182</v>
-      </c>
-      <c r="H13" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="L13" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>437</v>
-      </c>
-      <c r="N13" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="O13" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="P13" s="28"/>
-    </row>
-    <row r="14" spans="1:126" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.15">
-      <c r="A14" s="45"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="39">
+      <c r="D13" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>369</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" s="25"/>
+    </row>
+    <row r="14" spans="1:126" s="9" customFormat="1" ht="72" x14ac:dyDescent="0.15">
+      <c r="A14" s="42"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="36">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D14" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="H14" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="K14" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="L14" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="M14" s="39" t="s">
-        <v>427</v>
-      </c>
-      <c r="N14" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="O14" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="P14" s="28"/>
-    </row>
-    <row r="15" spans="1:126" s="12" customFormat="1" ht="180" x14ac:dyDescent="0.15">
-      <c r="A15" s="45"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="39">
+      <c r="D14" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>359</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" s="25"/>
+    </row>
+    <row r="15" spans="1:126" s="9" customFormat="1" ht="180" x14ac:dyDescent="0.15">
+      <c r="A15" s="42"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="36">
         <f t="shared" ref="C15:C17" si="1">C14+1</f>
         <v>9</v>
       </c>
-      <c r="D15" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>443</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J15" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="L15" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="M15" s="39" t="s">
-        <v>444</v>
-      </c>
-      <c r="N15" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="O15" s="43" t="s">
-        <v>416</v>
-      </c>
-      <c r="P15" s="28"/>
-    </row>
-    <row r="16" spans="1:126" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.15">
-      <c r="A16" s="45"/>
-      <c r="B16" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="39">
+      <c r="D15" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="N15" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="40" t="s">
+        <v>348</v>
+      </c>
+      <c r="P15" s="25"/>
+    </row>
+    <row r="16" spans="1:126" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A16" s="42"/>
+      <c r="B16" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="36">
         <f>C15+1</f>
         <v>10</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F16" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>438</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>415</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J16" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="K16" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="L16" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="M16" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="N16" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="O16" s="39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A17" s="45"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="39">
+      <c r="D16" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A17" s="42"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="36">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D17" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>439</v>
-      </c>
-      <c r="H17" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="K17" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="M17" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="N17" s="39">
+      <c r="D17" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" s="36">
         <v>15745</v>
       </c>
-      <c r="O17" s="39" t="s">
-        <v>154</v>
+      <c r="O17" s="36" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="21" x14ac:dyDescent="0.15">
-      <c r="A18" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="22"/>
-    </row>
-    <row r="19" spans="1:16" s="12" customFormat="1" ht="120" x14ac:dyDescent="0.15">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="39">
+      <c r="A18" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="19"/>
+    </row>
+    <row r="19" spans="1:16" s="9" customFormat="1" ht="120" x14ac:dyDescent="0.15">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="36">
         <f>C17+1</f>
         <v>12</v>
       </c>
-      <c r="D19" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>194</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>412</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="K19" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="M19" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="N19" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="O19" s="39" t="s">
+      <c r="D19" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="P19" s="28"/>
-    </row>
-    <row r="20" spans="1:16" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.15">
-      <c r="A20" s="45"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="39">
+      <c r="H19" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" s="25"/>
+    </row>
+    <row r="20" spans="1:16" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.15">
+      <c r="A20" s="42"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="36">
         <f>C19+1</f>
         <v>13</v>
       </c>
-      <c r="D20" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J20" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="K20" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="M20" s="39" t="s">
-        <v>428</v>
-      </c>
-      <c r="N20" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="O20" s="39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A21" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="22"/>
-    </row>
-    <row r="22" spans="1:16" s="12" customFormat="1" ht="156" x14ac:dyDescent="0.15">
-      <c r="A22" s="49"/>
-      <c r="B22" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C22" s="42">
+      <c r="D20" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>360</v>
+      </c>
+      <c r="N20" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A21" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="19"/>
+    </row>
+    <row r="22" spans="1:16" s="9" customFormat="1" ht="156" x14ac:dyDescent="0.15">
+      <c r="A22" s="46"/>
+      <c r="B22" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="39">
         <f>C20+1</f>
         <v>14</v>
       </c>
-      <c r="D22" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>440</v>
-      </c>
-      <c r="H22" s="39" t="s">
-        <v>417</v>
-      </c>
-      <c r="I22" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="K22" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="L22" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="M22" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="N22" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="O22" s="39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A23" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="B23" s="52"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="89"/>
-    </row>
-    <row r="24" spans="1:16" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A24" s="49"/>
-      <c r="B24" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="39">
+      <c r="D22" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>372</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A23" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="86"/>
+    </row>
+    <row r="24" spans="1:16" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A24" s="46"/>
+      <c r="B24" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="36">
         <f>C22+1</f>
         <v>15</v>
       </c>
-      <c r="D24" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="E24" s="65" t="s">
-        <v>133</v>
-      </c>
-      <c r="F24" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>441</v>
-      </c>
-      <c r="H24" s="43" t="s">
-        <v>419</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="K24" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="L24" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="M24" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="N24" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="O24" s="39" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.15">
-      <c r="A25" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-    </row>
-    <row r="26" spans="1:16" s="12" customFormat="1" ht="192" x14ac:dyDescent="0.15">
-      <c r="A26" s="45"/>
-      <c r="B26" s="63" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="54">
+      <c r="D24" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>351</v>
+      </c>
+      <c r="I24" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="N24" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="9" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A25" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="45"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+    </row>
+    <row r="26" spans="1:16" s="9" customFormat="1" ht="192" x14ac:dyDescent="0.15">
+      <c r="A26" s="42"/>
+      <c r="B26" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="51">
         <f>C24+1</f>
         <v>16</v>
       </c>
-      <c r="D26" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F26" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="G26" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="H26" s="39" t="s">
-        <v>418</v>
-      </c>
-      <c r="I26" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J26" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="K26" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="L26" s="43" t="s">
-        <v>429</v>
-      </c>
-      <c r="M26" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="N26" s="39">
+      <c r="D26" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="I26" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="M26" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="36">
         <v>15748</v>
       </c>
-      <c r="O26" s="39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="12" customFormat="1" ht="84" x14ac:dyDescent="0.15">
-      <c r="A27" s="64"/>
-      <c r="B27" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="54">
+      <c r="O26" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="9" customFormat="1" ht="84" x14ac:dyDescent="0.15">
+      <c r="A27" s="61"/>
+      <c r="B27" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="51">
         <f>C26+1</f>
         <v>17</v>
       </c>
-      <c r="D27" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="G27" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="I27" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="J27" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="K27" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="L27" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="M27" s="39" t="s">
-        <v>430</v>
-      </c>
-      <c r="N27" s="39">
+      <c r="D27" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="N27" s="36">
         <v>15772</v>
       </c>
-      <c r="O27" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="P27" s="28"/>
+      <c r="O27" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="P27" s="25"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A28" s="41"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
+      <c r="O28" s="38"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A29" s="41"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A30" s="41"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
+      <c r="O30" s="38"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A31" s="41"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A32" s="41"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A33" s="41"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
+      <c r="O33" s="38"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A34" s="41"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A35" s="41"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A36" s="41"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A37" s="41"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="41"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A38" s="41"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="41"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="41"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A39" s="41"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="41"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="41"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A40" s="41"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="41"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="38"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A41" s="41"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="41"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="41"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A42" s="41"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="41"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="38"/>
+      <c r="O42" s="38"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A43" s="41"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="41"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="38"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="38"/>
+      <c r="O43" s="38"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A44" s="41"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="41"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="41"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="41"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="38"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="38"/>
+      <c r="O44" s="38"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A45" s="41"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="41"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="41"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="41"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="38"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="38"/>
+      <c r="O45" s="38"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A46" s="41"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="41"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="41"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="38"/>
+      <c r="O46" s="38"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A47" s="41"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="41"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="41"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="41"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="38"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="38"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A48" s="41"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="41"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="41"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="41"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+      <c r="K48" s="38"/>
+      <c r="L48" s="38"/>
+      <c r="M48" s="38"/>
+      <c r="N48" s="38"/>
+      <c r="O48" s="38"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A49" s="41"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="41"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+      <c r="K49" s="38"/>
+      <c r="L49" s="38"/>
+      <c r="M49" s="38"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="38"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A50" s="41"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="41"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="38"/>
+      <c r="J50" s="38"/>
+      <c r="K50" s="38"/>
+      <c r="L50" s="38"/>
+      <c r="M50" s="38"/>
+      <c r="N50" s="38"/>
+      <c r="O50" s="38"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A51" s="41"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="38"/>
+      <c r="J51" s="38"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="38"/>
+      <c r="M51" s="38"/>
+      <c r="N51" s="38"/>
+      <c r="O51" s="38"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A52" s="41"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="41"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="41"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="38"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="38"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A53" s="41"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="41"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="38"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="38"/>
     </row>
     <row r="65" spans="9:9" x14ac:dyDescent="0.15">
       <c r="I65" s="1" t="s">
-        <v>139</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -8982,6 +8312,11 @@
     <filterColumn colId="8" showButton="0"/>
   </autoFilter>
   <mergeCells count="13">
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -8990,13 +8325,8 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
   </mergeCells>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="11"/>
   <conditionalFormatting sqref="G26">
     <cfRule type="expression" dxfId="4" priority="15">
       <formula>#REF!="完了"</formula>
@@ -9038,7 +8368,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FF4084-88E8-4405-B108-52D439302E02}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B1:M57"/>
@@ -9048,95 +8378,95 @@
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3" style="55" customWidth="1"/>
+    <col min="2" max="2" width="3" style="52" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B1" s="55" t="s">
-        <v>112</v>
+      <c r="B1" s="52" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="55" t="s">
-        <v>191</v>
+      <c r="B16" s="52" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C17" s="1" t="s">
-        <v>114</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F18" s="1" t="s">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F24" s="1" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B32" s="55" t="s">
-        <v>192</v>
+      <c r="B32" s="52" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C33" s="1" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F34" s="1" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F35" s="1" t="s">
-        <v>116</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F40" s="1" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B47" s="55" t="s">
-        <v>115</v>
+      <c r="B47" s="52" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F49" s="1" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F57" s="1" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="63" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF7115F3-2F8B-498B-B471-5FCF944BA8EF}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:Q31"/>
@@ -9145,104 +8475,104 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="57"/>
+    <col min="1" max="16384" width="2.625" style="54"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B2" s="56" t="s">
-        <v>156</v>
+      <c r="B2" s="53" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C4" s="57" t="s">
-        <v>157</v>
+      <c r="C4" s="54" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C6" s="57" t="s">
-        <v>445</v>
+      <c r="C6" s="54" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D7" s="57" t="s">
-        <v>158</v>
+      <c r="D7" s="54" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D9" s="57" t="s">
-        <v>446</v>
+      <c r="D9" s="54" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="C26" s="57" t="s">
-        <v>159</v>
+      <c r="C26" s="54" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="D27" s="57" t="s">
-        <v>165</v>
+      <c r="D27" s="54" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="C29" s="58"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
     </row>
     <row r="30" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
     </row>
     <row r="31" spans="3:17" x14ac:dyDescent="0.15">
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE078CD9-66B0-47CA-89F3-EDF862EB2612}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B2:P11"/>
@@ -9251,64 +8581,64 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="57"/>
+    <col min="1" max="16384" width="2.625" style="54"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B2" s="56" t="s">
-        <v>145</v>
+      <c r="B2" s="53" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="C4" s="57" t="s">
-        <v>146</v>
+      <c r="C4" s="54" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="C5" s="57" t="s">
-        <v>442</v>
+      <c r="C5" s="54" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="C7" s="57" t="s">
-        <v>147</v>
+      <c r="C7" s="54" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D8" s="57" t="s">
-        <v>160</v>
+      <c r="D8" s="54" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D9" s="57" t="s">
-        <v>148</v>
+      <c r="D9" s="54" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="D11" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="60"/>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="61"/>
+      <c r="D11" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="58"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
@@ -9319,128 +8649,128 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="17"/>
-    <col min="2" max="2" width="3.5" style="17" customWidth="1"/>
-    <col min="3" max="3" width="89.875" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="3.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="89.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>72</v>
+      <c r="A1" s="13" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
+      <c r="A3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19">
+      <c r="A5" s="15"/>
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="30" t="s">
-        <v>420</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
+      <c r="C5" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16">
         <f>$B5+1</f>
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
+      <c r="C6" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="11"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="87" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
@@ -9449,9 +8779,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24704AD8-693E-4158-A8F0-C4B06D8166AC}">
-  <sheetPr>
+  <sheetPr codeName="Sheet7">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J108"/>
@@ -9460,1863 +8790,1863 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.375" style="71" customWidth="1"/>
-    <col min="2" max="2" width="7" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.375" style="71" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="71" customWidth="1"/>
-    <col min="5" max="5" width="30.625" style="71" customWidth="1"/>
-    <col min="6" max="6" width="26.25" style="71" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="71" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.625" style="71" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="71" customWidth="1"/>
-    <col min="10" max="16384" width="10.5" style="71"/>
+    <col min="1" max="1" width="2.375" style="68" customWidth="1"/>
+    <col min="2" max="2" width="7" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.375" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="68" customWidth="1"/>
+    <col min="5" max="5" width="30.625" style="68" customWidth="1"/>
+    <col min="6" max="6" width="26.25" style="68" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="68" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.625" style="68" customWidth="1"/>
+    <col min="9" max="9" width="2.625" style="68" customWidth="1"/>
+    <col min="10" max="16384" width="10.5" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="67" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:10" s="64" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+    </row>
+    <row r="2" spans="1:10" s="64" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+    </row>
+    <row r="3" spans="1:10" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="G3" s="67"/>
+    </row>
+    <row r="4" spans="1:10" s="66" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="G4" s="67"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A6" s="65"/>
+      <c r="B6" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="65"/>
+      <c r="B7" s="65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="65"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="65"/>
+      <c r="B8" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="74">
+        <v>1</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="99" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="G11" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="H11" s="75" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="G12" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.15">
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="H13" s="75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B14" s="76"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" s="75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.15">
+      <c r="B15" s="76"/>
+      <c r="C15" s="74">
+        <v>2</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B16" s="76"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="G16" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="75" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="96" x14ac:dyDescent="0.15">
+      <c r="B17" s="76"/>
+      <c r="C17" s="75">
+        <v>3</v>
+      </c>
+      <c r="D17" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="75" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="60" x14ac:dyDescent="0.15">
+      <c r="B18" s="76"/>
+      <c r="C18" s="75">
+        <v>4</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>164</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="75" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="B19" s="81"/>
+      <c r="C19" s="75">
+        <v>5</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="75" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B20" s="74">
+        <v>5</v>
+      </c>
+      <c r="C20" s="74">
+        <v>1</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="99" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="H20" s="75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="75" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="75" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23" s="76"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="75" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="75" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="100"/>
+      <c r="F25" s="75" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="76"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="76"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="75" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28" s="75" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="75" t="s">
+        <v>185</v>
+      </c>
+      <c r="G29" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="75" t="s">
+        <v>187</v>
+      </c>
+      <c r="G31" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H31" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="100"/>
+      <c r="F32" s="75" t="s">
+        <v>188</v>
+      </c>
+      <c r="G32" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H32" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33" s="76"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="75" t="s">
+        <v>189</v>
+      </c>
+      <c r="G33" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H33" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="72" x14ac:dyDescent="0.15">
+      <c r="B34" s="81"/>
+      <c r="C34" s="75">
+        <v>2</v>
+      </c>
+      <c r="D34" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="E34" s="75" t="s">
+        <v>191</v>
+      </c>
+      <c r="F34" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="H34" s="75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="B35" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="C35" s="75">
+        <v>1</v>
+      </c>
+      <c r="D35" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="E35" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="75" t="s">
+        <v>195</v>
+      </c>
+      <c r="G35" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H35" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-    </row>
-    <row r="2" spans="1:10" s="67" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-    </row>
-    <row r="3" spans="1:10" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68" t="s">
+    </row>
+    <row r="36" spans="2:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="B36" s="76"/>
+      <c r="C36" s="74">
+        <v>2</v>
+      </c>
+      <c r="D36" s="74" t="s">
         <v>197</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="G3" s="70"/>
-    </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="68"/>
-      <c r="B4" s="68" t="s">
+      <c r="E36" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="75" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="G4" s="70"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="68"/>
-      <c r="B6" s="68" t="s">
+      <c r="G36" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H36" s="75" t="s">
         <v>199</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="68"/>
-      <c r="B7" s="68" t="s">
+    </row>
+    <row r="37" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B37" s="76"/>
+      <c r="C37" s="74">
+        <v>3</v>
+      </c>
+      <c r="D37" s="74" t="s">
         <v>200</v>
       </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="68"/>
-      <c r="B8" s="72" t="s">
+      <c r="E37" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="75" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-    </row>
-    <row r="10" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="73" t="s">
+      <c r="G37" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="C10" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="75" t="s">
+      <c r="H37" s="75" t="s">
         <v>203</v>
       </c>
-      <c r="E10" s="75" t="s">
+    </row>
+    <row r="38" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B38" s="76"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="75" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B39" s="76"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="G39" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H39" s="75" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H40" s="75" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="75" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" s="75" t="s">
+        <v>210</v>
+      </c>
+      <c r="H41" s="75" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="75" t="s">
+        <v>212</v>
+      </c>
+      <c r="G42" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42" s="75" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B43" s="76"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="75" t="s">
+        <v>214</v>
+      </c>
+      <c r="G43" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H43" s="75" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="B44" s="76"/>
+      <c r="C44" s="74">
+        <v>4</v>
+      </c>
+      <c r="D44" s="74" t="s">
+        <v>216</v>
+      </c>
+      <c r="E44" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="75" t="s">
+        <v>217</v>
+      </c>
+      <c r="G44" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="H44" s="75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B45" s="81"/>
+      <c r="C45" s="81"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="G45" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="H45" s="75" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="B46" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="75">
+        <v>1</v>
+      </c>
+      <c r="D46" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="G46" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H46" s="75" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="B47" s="76"/>
+      <c r="C47" s="75">
+        <v>2</v>
+      </c>
+      <c r="D47" s="75" t="s">
+        <v>227</v>
+      </c>
+      <c r="E47" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="G47" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H47" s="75" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="B48" s="76"/>
+      <c r="C48" s="75">
+        <v>3</v>
+      </c>
+      <c r="D48" s="75" t="s">
+        <v>229</v>
+      </c>
+      <c r="E48" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="75" t="s">
+        <v>230</v>
+      </c>
+      <c r="G48" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H48" s="75" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B49" s="76"/>
+      <c r="C49" s="75">
+        <v>4</v>
+      </c>
+      <c r="D49" s="75" t="s">
+        <v>231</v>
+      </c>
+      <c r="E49" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="75" t="s">
+        <v>165</v>
+      </c>
+      <c r="G49" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H49" s="75" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B50" s="76"/>
+      <c r="C50" s="74">
+        <v>5</v>
+      </c>
+      <c r="D50" s="99" t="s">
+        <v>233</v>
+      </c>
+      <c r="E50" s="74"/>
+      <c r="F50" s="75" t="s">
+        <v>234</v>
+      </c>
+      <c r="G50" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="H50" s="74" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B51" s="76"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="76"/>
+      <c r="F51" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="G51" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="H51" s="76"/>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B52" s="76"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="100"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="G52" s="75" t="s">
+        <v>235</v>
+      </c>
+      <c r="H52" s="76"/>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B53" s="76"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="100"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="75" t="s">
+        <v>239</v>
+      </c>
+      <c r="G53" s="75" t="s">
+        <v>240</v>
+      </c>
+      <c r="H53" s="76"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B54" s="76"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="100"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="G54" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H54" s="76"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="G55" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H55" s="76"/>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B56" s="76"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="76"/>
+      <c r="F56" s="75" t="s">
+        <v>242</v>
+      </c>
+      <c r="G56" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H56" s="76"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B57" s="76"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="75" t="s">
+        <v>243</v>
+      </c>
+      <c r="G57" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H57" s="76"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B58" s="76"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="G58" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H58" s="76"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B59" s="76"/>
+      <c r="C59" s="76"/>
+      <c r="D59" s="100"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="75" t="s">
+        <v>245</v>
+      </c>
+      <c r="G59" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H59" s="76"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B60" s="76"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="G60" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H60" s="76"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B61" s="76"/>
+      <c r="C61" s="76"/>
+      <c r="D61" s="100"/>
+      <c r="E61" s="76"/>
+      <c r="F61" s="75" t="s">
+        <v>247</v>
+      </c>
+      <c r="G61" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H61" s="76"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B62" s="76"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="76"/>
+      <c r="F62" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="G62" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H62" s="76"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B63" s="76"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="100"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="75" t="s">
+        <v>249</v>
+      </c>
+      <c r="G63" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H63" s="76"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B64" s="76"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="101"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="75" t="s">
+        <v>250</v>
+      </c>
+      <c r="G64" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H64" s="81"/>
+    </row>
+    <row r="65" spans="2:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="B65" s="76"/>
+      <c r="C65" s="75">
+        <v>6</v>
+      </c>
+      <c r="D65" s="75" t="s">
+        <v>251</v>
+      </c>
+      <c r="E65" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="G65" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H65" s="75" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="48" x14ac:dyDescent="0.15">
+      <c r="B66" s="76"/>
+      <c r="C66" s="74">
         <v>7</v>
       </c>
-      <c r="F10" s="73" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="76" t="s">
-        <v>205</v>
-      </c>
-      <c r="H10" s="73" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B11" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" s="77">
+      <c r="D66" s="74" t="s">
+        <v>253</v>
+      </c>
+      <c r="E66" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="75" t="s">
+        <v>237</v>
+      </c>
+      <c r="G66" s="75" t="s">
+        <v>254</v>
+      </c>
+      <c r="H66" s="74" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B67" s="76"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="75" t="s">
+        <v>255</v>
+      </c>
+      <c r="G67" s="75" t="s">
+        <v>256</v>
+      </c>
+      <c r="H67" s="81"/>
+    </row>
+    <row r="68" spans="2:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="B68" s="81"/>
+      <c r="C68" s="75">
+        <v>8</v>
+      </c>
+      <c r="D68" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="E68" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="G68" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H68" s="75" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="B69" s="74" t="s">
+        <v>259</v>
+      </c>
+      <c r="C69" s="75">
         <v>1</v>
       </c>
-      <c r="D11" s="77" t="s">
-        <v>208</v>
-      </c>
-      <c r="E11" s="102" t="s">
-        <v>209</v>
-      </c>
-      <c r="F11" s="78" t="s">
-        <v>210</v>
-      </c>
-      <c r="G11" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="H11" s="78" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="81" t="s">
-        <v>213</v>
-      </c>
-      <c r="G12" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="H12" s="78" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="48" x14ac:dyDescent="0.15">
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="81" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" s="83" t="s">
-        <v>214</v>
-      </c>
-      <c r="H13" s="78" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="24" x14ac:dyDescent="0.15">
-      <c r="B14" s="79"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="81" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="H14" s="78" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.15">
-      <c r="B15" s="79"/>
-      <c r="C15" s="77">
+      <c r="D69" s="75" t="s">
+        <v>260</v>
+      </c>
+      <c r="E69" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="G69" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="H69" s="75" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="B70" s="76"/>
+      <c r="C70" s="75">
         <v>2</v>
       </c>
-      <c r="D15" s="86" t="s">
-        <v>220</v>
-      </c>
-      <c r="E15" s="105" t="s">
-        <v>221</v>
-      </c>
-      <c r="F15" s="81" t="s">
-        <v>222</v>
-      </c>
-      <c r="G15" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H15" s="78" t="s">
+      <c r="D70" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="E70" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="G70" s="75" t="s">
+        <v>261</v>
+      </c>
+      <c r="H70" s="75" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B71" s="76"/>
+      <c r="C71" s="75">
+        <v>3</v>
+      </c>
+      <c r="D71" s="75" t="s">
+        <v>265</v>
+      </c>
+      <c r="E71" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="75" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B16" s="79"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="78" t="s">
+      <c r="G71" s="75" t="s">
+        <v>183</v>
+      </c>
+      <c r="H71" s="75" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B72" s="81"/>
+      <c r="C72" s="75">
+        <v>4</v>
+      </c>
+      <c r="D72" s="75" t="s">
+        <v>266</v>
+      </c>
+      <c r="E72" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="75" t="s">
+        <v>267</v>
+      </c>
+      <c r="G72" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H72" s="75" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B73" s="74" t="s">
+        <v>268</v>
+      </c>
+      <c r="C73" s="75">
+        <v>1</v>
+      </c>
+      <c r="D73" s="75" t="s">
+        <v>269</v>
+      </c>
+      <c r="E73" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="75" t="s">
+        <v>270</v>
+      </c>
+      <c r="G73" s="75" t="s">
         <v>225</v>
       </c>
-      <c r="G16" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H16" s="78" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="96" x14ac:dyDescent="0.15">
-      <c r="B17" s="79"/>
-      <c r="C17" s="78">
+      <c r="H73" s="75" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="B74" s="76"/>
+      <c r="C74" s="75">
+        <v>2</v>
+      </c>
+      <c r="D74" s="75" t="s">
+        <v>272</v>
+      </c>
+      <c r="E74" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="G74" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H74" s="75" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B75" s="76"/>
+      <c r="C75" s="75">
         <v>3</v>
       </c>
-      <c r="D17" s="87" t="s">
-        <v>227</v>
-      </c>
-      <c r="E17" s="87" t="s">
-        <v>228</v>
-      </c>
-      <c r="F17" s="81" t="s">
-        <v>229</v>
-      </c>
-      <c r="G17" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H17" s="78" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="60" x14ac:dyDescent="0.15">
-      <c r="B18" s="79"/>
-      <c r="C18" s="78">
+      <c r="D75" s="75" t="s">
+        <v>275</v>
+      </c>
+      <c r="E75" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="G75" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H75" s="75" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="84" x14ac:dyDescent="0.15">
+      <c r="B76" s="76"/>
+      <c r="C76" s="75">
         <v>4</v>
       </c>
-      <c r="D18" s="78" t="s">
-        <v>231</v>
-      </c>
-      <c r="E18" s="78" t="s">
-        <v>232</v>
-      </c>
-      <c r="F18" s="78" t="s">
-        <v>233</v>
-      </c>
-      <c r="G18" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H18" s="78" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="B19" s="84"/>
-      <c r="C19" s="78">
+      <c r="D76" s="75" t="s">
+        <v>278</v>
+      </c>
+      <c r="E76" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" s="75" t="s">
+        <v>279</v>
+      </c>
+      <c r="G76" s="75" t="s">
+        <v>280</v>
+      </c>
+      <c r="H76" s="75" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B77" s="76"/>
+      <c r="C77" s="75">
         <v>5</v>
       </c>
-      <c r="D19" s="78" t="s">
-        <v>235</v>
-      </c>
-      <c r="E19" s="78" t="s">
-        <v>236</v>
-      </c>
-      <c r="F19" s="78" t="s">
-        <v>237</v>
-      </c>
-      <c r="G19" s="78" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="78" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B20" s="77">
-        <v>5</v>
-      </c>
-      <c r="C20" s="77">
+      <c r="D77" s="75" t="s">
+        <v>282</v>
+      </c>
+      <c r="E77" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" s="75" t="s">
+        <v>283</v>
+      </c>
+      <c r="G77" s="75" t="s">
+        <v>284</v>
+      </c>
+      <c r="H77" s="75" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B78" s="76"/>
+      <c r="C78" s="75">
+        <v>6</v>
+      </c>
+      <c r="D78" s="75" t="s">
+        <v>286</v>
+      </c>
+      <c r="E78" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F78" s="75" t="s">
+        <v>287</v>
+      </c>
+      <c r="G78" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H78" s="75" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B79" s="76"/>
+      <c r="C79" s="75">
+        <v>7</v>
+      </c>
+      <c r="D79" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="E79" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="G79" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H79" s="75" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B80" s="76"/>
+      <c r="C80" s="75">
+        <v>8</v>
+      </c>
+      <c r="D80" s="74" t="s">
+        <v>292</v>
+      </c>
+      <c r="E80" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F80" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="G80" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H80" s="75" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B81" s="76"/>
+      <c r="C81" s="75">
+        <v>9</v>
+      </c>
+      <c r="D81" s="76"/>
+      <c r="E81" s="76"/>
+      <c r="F81" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="G81" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H81" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B82" s="76"/>
+      <c r="C82" s="75">
+        <v>10</v>
+      </c>
+      <c r="D82" s="76"/>
+      <c r="E82" s="76"/>
+      <c r="F82" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="G82" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H82" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B83" s="76"/>
+      <c r="C83" s="75">
+        <v>11</v>
+      </c>
+      <c r="D83" s="76"/>
+      <c r="E83" s="76"/>
+      <c r="F83" s="75" t="s">
+        <v>297</v>
+      </c>
+      <c r="G83" s="75" t="s">
+        <v>298</v>
+      </c>
+      <c r="H83" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B84" s="76"/>
+      <c r="C84" s="75">
+        <v>12</v>
+      </c>
+      <c r="D84" s="76"/>
+      <c r="E84" s="76"/>
+      <c r="F84" s="75" t="s">
+        <v>299</v>
+      </c>
+      <c r="G84" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H84" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B85" s="76"/>
+      <c r="C85" s="75">
+        <v>13</v>
+      </c>
+      <c r="D85" s="76"/>
+      <c r="E85" s="76"/>
+      <c r="F85" s="75" t="s">
+        <v>300</v>
+      </c>
+      <c r="G85" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H85" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B86" s="76"/>
+      <c r="C86" s="75">
+        <v>14</v>
+      </c>
+      <c r="D86" s="76"/>
+      <c r="E86" s="76"/>
+      <c r="F86" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="G86" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H86" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B87" s="76"/>
+      <c r="C87" s="75">
+        <v>15</v>
+      </c>
+      <c r="D87" s="76"/>
+      <c r="E87" s="76"/>
+      <c r="F87" s="75" t="s">
+        <v>302</v>
+      </c>
+      <c r="G87" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H87" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B88" s="76"/>
+      <c r="C88" s="75">
+        <v>16</v>
+      </c>
+      <c r="D88" s="76"/>
+      <c r="E88" s="76"/>
+      <c r="F88" s="75" t="s">
+        <v>303</v>
+      </c>
+      <c r="G88" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H88" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B89" s="76"/>
+      <c r="C89" s="75">
+        <v>17</v>
+      </c>
+      <c r="D89" s="76"/>
+      <c r="E89" s="76"/>
+      <c r="F89" s="75" t="s">
+        <v>304</v>
+      </c>
+      <c r="G89" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H89" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B90" s="76"/>
+      <c r="C90" s="75">
+        <v>18</v>
+      </c>
+      <c r="D90" s="76"/>
+      <c r="E90" s="76"/>
+      <c r="F90" s="75" t="s">
+        <v>305</v>
+      </c>
+      <c r="G90" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H90" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B91" s="76"/>
+      <c r="C91" s="75">
+        <v>19</v>
+      </c>
+      <c r="D91" s="76"/>
+      <c r="E91" s="76"/>
+      <c r="F91" s="75" t="s">
+        <v>306</v>
+      </c>
+      <c r="G91" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H91" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B92" s="76"/>
+      <c r="C92" s="75">
+        <v>20</v>
+      </c>
+      <c r="D92" s="81"/>
+      <c r="E92" s="81"/>
+      <c r="F92" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="G92" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H92" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B93" s="76"/>
+      <c r="C93" s="75">
+        <v>21</v>
+      </c>
+      <c r="D93" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="E93" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" s="75" t="s">
+        <v>309</v>
+      </c>
+      <c r="G93" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="H93" s="75" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B94" s="76"/>
+      <c r="C94" s="75">
+        <v>22</v>
+      </c>
+      <c r="D94" s="75" t="s">
+        <v>311</v>
+      </c>
+      <c r="E94" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" s="75" t="s">
+        <v>312</v>
+      </c>
+      <c r="G94" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="H94" s="75" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B95" s="76"/>
+      <c r="C95" s="75">
+        <v>23</v>
+      </c>
+      <c r="D95" s="74" t="s">
+        <v>314</v>
+      </c>
+      <c r="E95" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="G95" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H95" s="75" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B96" s="76"/>
+      <c r="C96" s="75">
+        <v>24</v>
+      </c>
+      <c r="D96" s="76"/>
+      <c r="E96" s="76"/>
+      <c r="F96" s="75" t="s">
+        <v>317</v>
+      </c>
+      <c r="G96" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H96" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B97" s="76"/>
+      <c r="C97" s="75">
+        <v>25</v>
+      </c>
+      <c r="D97" s="76"/>
+      <c r="E97" s="76"/>
+      <c r="F97" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="G97" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H97" s="75" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B98" s="76"/>
+      <c r="C98" s="75">
+        <v>26</v>
+      </c>
+      <c r="D98" s="76"/>
+      <c r="E98" s="76"/>
+      <c r="F98" s="75" t="s">
+        <v>319</v>
+      </c>
+      <c r="G98" s="75" t="s">
+        <v>173</v>
+      </c>
+      <c r="H98" s="75" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B99" s="76"/>
+      <c r="C99" s="75">
+        <v>27</v>
+      </c>
+      <c r="D99" s="76"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="75" t="s">
+        <v>321</v>
+      </c>
+      <c r="G99" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H99" s="75" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B100" s="76"/>
+      <c r="C100" s="75">
+        <v>28</v>
+      </c>
+      <c r="D100" s="81"/>
+      <c r="E100" s="81"/>
+      <c r="F100" s="75" t="s">
+        <v>323</v>
+      </c>
+      <c r="G100" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="H100" s="75" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B101" s="76"/>
+      <c r="C101" s="75">
+        <v>29</v>
+      </c>
+      <c r="D101" s="74" t="s">
+        <v>326</v>
+      </c>
+      <c r="E101" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F101" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="G101" s="75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H101" s="75" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B102" s="76"/>
+      <c r="C102" s="75">
+        <v>30</v>
+      </c>
+      <c r="D102" s="76"/>
+      <c r="E102" s="76"/>
+      <c r="F102" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="G102" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H102" s="75" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B103" s="76"/>
+      <c r="C103" s="75">
+        <v>31</v>
+      </c>
+      <c r="D103" s="81"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="75" t="s">
+        <v>330</v>
+      </c>
+      <c r="G103" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H103" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" ht="36" x14ac:dyDescent="0.15">
+      <c r="B104" s="76"/>
+      <c r="C104" s="75">
+        <v>32</v>
+      </c>
+      <c r="D104" s="74" t="s">
+        <v>331</v>
+      </c>
+      <c r="E104" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="G104" s="75" t="s">
+        <v>225</v>
+      </c>
+      <c r="H104" s="75" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B105" s="81"/>
+      <c r="C105" s="75">
+        <v>33</v>
+      </c>
+      <c r="D105" s="81"/>
+      <c r="E105" s="81"/>
+      <c r="F105" s="75" t="s">
+        <v>334</v>
+      </c>
+      <c r="G105" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="H105" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B106" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="C106" s="75">
         <v>1</v>
       </c>
-      <c r="D20" s="77" t="s">
-        <v>239</v>
-      </c>
-      <c r="E20" s="102" t="s">
-        <v>240</v>
-      </c>
-      <c r="F20" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="G20" s="78" t="s">
-        <v>241</v>
-      </c>
-      <c r="H20" s="78" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B21" s="79"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="78" t="s">
-        <v>243</v>
-      </c>
-      <c r="G21" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H21" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="78" t="s">
-        <v>245</v>
-      </c>
-      <c r="G22" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H22" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="G23" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H23" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="79"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="78" t="s">
-        <v>247</v>
-      </c>
-      <c r="G24" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H24" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="78" t="s">
-        <v>248</v>
-      </c>
-      <c r="G25" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H25" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B26" s="79"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="78" t="s">
-        <v>249</v>
-      </c>
-      <c r="G26" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H26" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="78" t="s">
+      <c r="D106" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="E106" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F106" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="G106" s="75" t="s">
+        <v>338</v>
+      </c>
+      <c r="H106" s="75" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B107" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="C107" s="75">
+        <v>1</v>
+      </c>
+      <c r="D107" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="E107" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F107" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="G107" s="85" t="s">
+        <v>340</v>
+      </c>
+      <c r="H107" s="75" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="24" x14ac:dyDescent="0.15">
+      <c r="B108" s="85" t="s">
+        <v>342</v>
+      </c>
+      <c r="C108" s="75">
+        <v>1</v>
+      </c>
+      <c r="D108" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="E108" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F108" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="G27" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H27" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B28" s="79"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="G28" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="H28" s="78" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B29" s="79"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="78" t="s">
-        <v>253</v>
-      </c>
-      <c r="G29" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H29" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B30" s="79"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="78" t="s">
-        <v>254</v>
-      </c>
-      <c r="G30" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H30" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B31" s="79"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="78" t="s">
-        <v>255</v>
-      </c>
-      <c r="G31" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H31" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B32" s="79"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="78" t="s">
-        <v>256</v>
-      </c>
-      <c r="G32" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H32" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B33" s="79"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="78" t="s">
-        <v>257</v>
-      </c>
-      <c r="G33" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H33" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="72" x14ac:dyDescent="0.15">
-      <c r="B34" s="84"/>
-      <c r="C34" s="78">
-        <v>2</v>
-      </c>
-      <c r="D34" s="78" t="s">
-        <v>258</v>
-      </c>
-      <c r="E34" s="78" t="s">
-        <v>259</v>
-      </c>
-      <c r="F34" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="G34" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="H34" s="78" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="B35" s="77" t="s">
-        <v>261</v>
-      </c>
-      <c r="C35" s="78">
-        <v>1</v>
-      </c>
-      <c r="D35" s="78" t="s">
-        <v>262</v>
-      </c>
-      <c r="E35" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="78" t="s">
-        <v>263</v>
-      </c>
-      <c r="G35" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H35" s="78" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="B36" s="79"/>
-      <c r="C36" s="77">
-        <v>2</v>
-      </c>
-      <c r="D36" s="77" t="s">
-        <v>265</v>
-      </c>
-      <c r="E36" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="G36" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H36" s="78" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B37" s="79"/>
-      <c r="C37" s="77">
-        <v>3</v>
-      </c>
-      <c r="D37" s="77" t="s">
-        <v>268</v>
-      </c>
-      <c r="E37" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="78" t="s">
-        <v>269</v>
-      </c>
-      <c r="G37" s="83" t="s">
-        <v>270</v>
-      </c>
-      <c r="H37" s="78" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="78" t="s">
-        <v>272</v>
-      </c>
-      <c r="G38" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="H38" s="78" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B39" s="79"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="78" t="s">
-        <v>274</v>
-      </c>
-      <c r="G39" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H39" s="78" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B40" s="79"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="78" t="s">
-        <v>276</v>
-      </c>
-      <c r="G40" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H40" s="78" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B41" s="79"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="79"/>
-      <c r="F41" s="78" t="s">
-        <v>216</v>
-      </c>
-      <c r="G41" s="78" t="s">
-        <v>278</v>
-      </c>
-      <c r="H41" s="78" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B42" s="79"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="78" t="s">
-        <v>280</v>
-      </c>
-      <c r="G42" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H42" s="78" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B43" s="79"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="78" t="s">
-        <v>282</v>
-      </c>
-      <c r="G43" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H43" s="78" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="B44" s="79"/>
-      <c r="C44" s="77">
-        <v>4</v>
-      </c>
-      <c r="D44" s="77" t="s">
-        <v>284</v>
-      </c>
-      <c r="E44" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="F44" s="78" t="s">
-        <v>285</v>
-      </c>
-      <c r="G44" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="H44" s="78" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B45" s="84"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="78" t="s">
-        <v>288</v>
-      </c>
-      <c r="G45" s="78" t="s">
-        <v>286</v>
-      </c>
-      <c r="H45" s="78" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="B46" s="77" t="s">
-        <v>290</v>
-      </c>
-      <c r="C46" s="78">
-        <v>1</v>
-      </c>
-      <c r="D46" s="78" t="s">
-        <v>291</v>
-      </c>
-      <c r="E46" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F46" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="G46" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H46" s="78" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="B47" s="79"/>
-      <c r="C47" s="78">
-        <v>2</v>
-      </c>
-      <c r="D47" s="78" t="s">
-        <v>295</v>
-      </c>
-      <c r="E47" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F47" s="78" t="s">
-        <v>296</v>
-      </c>
-      <c r="G47" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="H47" s="78" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="B48" s="79"/>
-      <c r="C48" s="78">
-        <v>3</v>
-      </c>
-      <c r="D48" s="78" t="s">
-        <v>297</v>
-      </c>
-      <c r="E48" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F48" s="78" t="s">
-        <v>298</v>
-      </c>
-      <c r="G48" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H48" s="78" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B49" s="79"/>
-      <c r="C49" s="78">
-        <v>4</v>
-      </c>
-      <c r="D49" s="78" t="s">
-        <v>299</v>
-      </c>
-      <c r="E49" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="78" t="s">
-        <v>233</v>
-      </c>
-      <c r="G49" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="H49" s="78" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B50" s="79"/>
-      <c r="C50" s="77">
-        <v>5</v>
-      </c>
-      <c r="D50" s="102" t="s">
-        <v>301</v>
-      </c>
-      <c r="E50" s="77"/>
-      <c r="F50" s="78" t="s">
-        <v>302</v>
-      </c>
-      <c r="G50" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="H50" s="77" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="78" t="s">
-        <v>305</v>
-      </c>
-      <c r="G51" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="H51" s="79"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B52" s="79"/>
-      <c r="C52" s="79"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="79"/>
-      <c r="F52" s="78" t="s">
-        <v>306</v>
-      </c>
-      <c r="G52" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="H52" s="79"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53" s="103"/>
-      <c r="E53" s="79"/>
-      <c r="F53" s="78" t="s">
-        <v>307</v>
-      </c>
-      <c r="G53" s="78" t="s">
-        <v>308</v>
-      </c>
-      <c r="H53" s="79"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B54" s="79"/>
-      <c r="C54" s="79"/>
-      <c r="D54" s="103"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="78" t="s">
-        <v>309</v>
-      </c>
-      <c r="G54" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="H54" s="79"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B55" s="79"/>
-      <c r="C55" s="79"/>
-      <c r="D55" s="103"/>
-      <c r="E55" s="79"/>
-      <c r="F55" s="78" t="s">
-        <v>310</v>
-      </c>
-      <c r="G55" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="H55" s="79"/>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B56" s="79"/>
-      <c r="C56" s="79"/>
-      <c r="D56" s="103"/>
-      <c r="E56" s="79"/>
-      <c r="F56" s="78" t="s">
-        <v>310</v>
-      </c>
-      <c r="G56" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="H56" s="79"/>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B57" s="79"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="79"/>
-      <c r="F57" s="78" t="s">
-        <v>311</v>
-      </c>
-      <c r="G57" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="H57" s="79"/>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="103"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="78" t="s">
-        <v>312</v>
-      </c>
-      <c r="G58" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="H58" s="79"/>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="78" t="s">
-        <v>313</v>
-      </c>
-      <c r="G59" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="H59" s="79"/>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B60" s="79"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="78" t="s">
-        <v>314</v>
-      </c>
-      <c r="G60" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="H60" s="79"/>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B61" s="79"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="103"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="78" t="s">
-        <v>315</v>
-      </c>
-      <c r="G61" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="H61" s="79"/>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B62" s="79"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="103"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="78" t="s">
-        <v>316</v>
-      </c>
-      <c r="G62" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="H62" s="79"/>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B63" s="79"/>
-      <c r="C63" s="79"/>
-      <c r="D63" s="103"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="78" t="s">
-        <v>317</v>
-      </c>
-      <c r="G63" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="H63" s="79"/>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B64" s="79"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="104"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="78" t="s">
-        <v>318</v>
-      </c>
-      <c r="G64" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="H64" s="84"/>
-    </row>
-    <row r="65" spans="2:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="B65" s="79"/>
-      <c r="C65" s="78">
-        <v>6</v>
-      </c>
-      <c r="D65" s="78" t="s">
-        <v>319</v>
-      </c>
-      <c r="E65" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F65" s="78" t="s">
-        <v>320</v>
-      </c>
-      <c r="G65" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H65" s="78" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" ht="48" x14ac:dyDescent="0.15">
-      <c r="B66" s="79"/>
-      <c r="C66" s="77">
-        <v>7</v>
-      </c>
-      <c r="D66" s="77" t="s">
-        <v>321</v>
-      </c>
-      <c r="E66" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="F66" s="78" t="s">
-        <v>305</v>
-      </c>
-      <c r="G66" s="78" t="s">
-        <v>322</v>
-      </c>
-      <c r="H66" s="77" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B67" s="79"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="78" t="s">
-        <v>323</v>
-      </c>
-      <c r="G67" s="78" t="s">
-        <v>324</v>
-      </c>
-      <c r="H67" s="84"/>
-    </row>
-    <row r="68" spans="2:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="B68" s="84"/>
-      <c r="C68" s="78">
-        <v>8</v>
-      </c>
-      <c r="D68" s="78" t="s">
-        <v>325</v>
-      </c>
-      <c r="E68" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F68" s="78" t="s">
-        <v>266</v>
-      </c>
-      <c r="G68" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H68" s="78" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="B69" s="77" t="s">
-        <v>327</v>
-      </c>
-      <c r="C69" s="78">
-        <v>1</v>
-      </c>
-      <c r="D69" s="78" t="s">
-        <v>328</v>
-      </c>
-      <c r="E69" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F69" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="G69" s="78" t="s">
-        <v>329</v>
-      </c>
-      <c r="H69" s="78" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="B70" s="79"/>
-      <c r="C70" s="78">
-        <v>2</v>
-      </c>
-      <c r="D70" s="78" t="s">
-        <v>331</v>
-      </c>
-      <c r="E70" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F70" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="G70" s="78" t="s">
-        <v>329</v>
-      </c>
-      <c r="H70" s="78" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B71" s="79"/>
-      <c r="C71" s="78">
-        <v>3</v>
-      </c>
-      <c r="D71" s="78" t="s">
-        <v>333</v>
-      </c>
-      <c r="E71" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F71" s="78" t="s">
-        <v>292</v>
-      </c>
-      <c r="G71" s="78" t="s">
-        <v>251</v>
-      </c>
-      <c r="H71" s="78" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B72" s="84"/>
-      <c r="C72" s="78">
-        <v>4</v>
-      </c>
-      <c r="D72" s="78" t="s">
-        <v>334</v>
-      </c>
-      <c r="E72" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F72" s="78" t="s">
-        <v>335</v>
-      </c>
-      <c r="G72" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H72" s="78" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B73" s="77" t="s">
-        <v>336</v>
-      </c>
-      <c r="C73" s="78">
-        <v>1</v>
-      </c>
-      <c r="D73" s="78" t="s">
-        <v>337</v>
-      </c>
-      <c r="E73" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F73" s="78" t="s">
-        <v>338</v>
-      </c>
-      <c r="G73" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H73" s="78" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="B74" s="79"/>
-      <c r="C74" s="78">
-        <v>2</v>
-      </c>
-      <c r="D74" s="78" t="s">
-        <v>340</v>
-      </c>
-      <c r="E74" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="78" t="s">
+      <c r="G108" s="85" t="s">
+        <v>343</v>
+      </c>
+      <c r="H108" s="75" t="s">
         <v>341</v>
-      </c>
-      <c r="G74" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H74" s="78" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B75" s="79"/>
-      <c r="C75" s="78">
-        <v>3</v>
-      </c>
-      <c r="D75" s="78" t="s">
-        <v>343</v>
-      </c>
-      <c r="E75" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F75" s="78" t="s">
-        <v>344</v>
-      </c>
-      <c r="G75" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="H75" s="78" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" ht="84" x14ac:dyDescent="0.15">
-      <c r="B76" s="79"/>
-      <c r="C76" s="78">
-        <v>4</v>
-      </c>
-      <c r="D76" s="78" t="s">
-        <v>346</v>
-      </c>
-      <c r="E76" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F76" s="78" t="s">
-        <v>347</v>
-      </c>
-      <c r="G76" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="H76" s="78" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B77" s="79"/>
-      <c r="C77" s="78">
-        <v>5</v>
-      </c>
-      <c r="D77" s="78" t="s">
-        <v>350</v>
-      </c>
-      <c r="E77" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F77" s="78" t="s">
-        <v>351</v>
-      </c>
-      <c r="G77" s="78" t="s">
-        <v>352</v>
-      </c>
-      <c r="H77" s="78" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B78" s="79"/>
-      <c r="C78" s="78">
-        <v>6</v>
-      </c>
-      <c r="D78" s="78" t="s">
-        <v>354</v>
-      </c>
-      <c r="E78" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="78" t="s">
-        <v>355</v>
-      </c>
-      <c r="G78" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H78" s="78" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B79" s="79"/>
-      <c r="C79" s="78">
-        <v>7</v>
-      </c>
-      <c r="D79" s="78" t="s">
-        <v>357</v>
-      </c>
-      <c r="E79" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F79" s="78" t="s">
-        <v>358</v>
-      </c>
-      <c r="G79" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H79" s="78" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B80" s="79"/>
-      <c r="C80" s="78">
-        <v>8</v>
-      </c>
-      <c r="D80" s="77" t="s">
-        <v>360</v>
-      </c>
-      <c r="E80" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="F80" s="78" t="s">
-        <v>361</v>
-      </c>
-      <c r="G80" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H80" s="78" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B81" s="79"/>
-      <c r="C81" s="78">
-        <v>9</v>
-      </c>
-      <c r="D81" s="79"/>
-      <c r="E81" s="79"/>
-      <c r="F81" s="78" t="s">
-        <v>363</v>
-      </c>
-      <c r="G81" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H81" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B82" s="79"/>
-      <c r="C82" s="78">
-        <v>10</v>
-      </c>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="78" t="s">
-        <v>364</v>
-      </c>
-      <c r="G82" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H82" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B83" s="79"/>
-      <c r="C83" s="78">
-        <v>11</v>
-      </c>
-      <c r="D83" s="79"/>
-      <c r="E83" s="79"/>
-      <c r="F83" s="78" t="s">
-        <v>365</v>
-      </c>
-      <c r="G83" s="78" t="s">
-        <v>366</v>
-      </c>
-      <c r="H83" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B84" s="79"/>
-      <c r="C84" s="78">
-        <v>12</v>
-      </c>
-      <c r="D84" s="79"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="78" t="s">
-        <v>367</v>
-      </c>
-      <c r="G84" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H84" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B85" s="79"/>
-      <c r="C85" s="78">
-        <v>13</v>
-      </c>
-      <c r="D85" s="79"/>
-      <c r="E85" s="79"/>
-      <c r="F85" s="78" t="s">
-        <v>368</v>
-      </c>
-      <c r="G85" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H85" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B86" s="79"/>
-      <c r="C86" s="78">
-        <v>14</v>
-      </c>
-      <c r="D86" s="79"/>
-      <c r="E86" s="79"/>
-      <c r="F86" s="78" t="s">
-        <v>369</v>
-      </c>
-      <c r="G86" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H86" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B87" s="79"/>
-      <c r="C87" s="78">
-        <v>15</v>
-      </c>
-      <c r="D87" s="79"/>
-      <c r="E87" s="79"/>
-      <c r="F87" s="78" t="s">
-        <v>370</v>
-      </c>
-      <c r="G87" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H87" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B88" s="79"/>
-      <c r="C88" s="78">
-        <v>16</v>
-      </c>
-      <c r="D88" s="79"/>
-      <c r="E88" s="79"/>
-      <c r="F88" s="78" t="s">
-        <v>371</v>
-      </c>
-      <c r="G88" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H88" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B89" s="79"/>
-      <c r="C89" s="78">
-        <v>17</v>
-      </c>
-      <c r="D89" s="79"/>
-      <c r="E89" s="79"/>
-      <c r="F89" s="78" t="s">
-        <v>372</v>
-      </c>
-      <c r="G89" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H89" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B90" s="79"/>
-      <c r="C90" s="78">
-        <v>18</v>
-      </c>
-      <c r="D90" s="79"/>
-      <c r="E90" s="79"/>
-      <c r="F90" s="78" t="s">
-        <v>373</v>
-      </c>
-      <c r="G90" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H90" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B91" s="79"/>
-      <c r="C91" s="78">
-        <v>19</v>
-      </c>
-      <c r="D91" s="79"/>
-      <c r="E91" s="79"/>
-      <c r="F91" s="78" t="s">
-        <v>374</v>
-      </c>
-      <c r="G91" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H91" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B92" s="79"/>
-      <c r="C92" s="78">
-        <v>20</v>
-      </c>
-      <c r="D92" s="84"/>
-      <c r="E92" s="84"/>
-      <c r="F92" s="78" t="s">
-        <v>375</v>
-      </c>
-      <c r="G92" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H92" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B93" s="79"/>
-      <c r="C93" s="78">
-        <v>21</v>
-      </c>
-      <c r="D93" s="78" t="s">
-        <v>376</v>
-      </c>
-      <c r="E93" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F93" s="78" t="s">
-        <v>377</v>
-      </c>
-      <c r="G93" s="78" t="s">
-        <v>241</v>
-      </c>
-      <c r="H93" s="78" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B94" s="79"/>
-      <c r="C94" s="78">
-        <v>22</v>
-      </c>
-      <c r="D94" s="78" t="s">
-        <v>379</v>
-      </c>
-      <c r="E94" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F94" s="78" t="s">
-        <v>380</v>
-      </c>
-      <c r="G94" s="78" t="s">
-        <v>241</v>
-      </c>
-      <c r="H94" s="78" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B95" s="79"/>
-      <c r="C95" s="78">
-        <v>23</v>
-      </c>
-      <c r="D95" s="77" t="s">
-        <v>382</v>
-      </c>
-      <c r="E95" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="F95" s="78" t="s">
-        <v>383</v>
-      </c>
-      <c r="G95" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H95" s="78" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B96" s="79"/>
-      <c r="C96" s="78">
-        <v>24</v>
-      </c>
-      <c r="D96" s="79"/>
-      <c r="E96" s="79"/>
-      <c r="F96" s="78" t="s">
-        <v>385</v>
-      </c>
-      <c r="G96" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="97" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B97" s="79"/>
-      <c r="C97" s="78">
-        <v>25</v>
-      </c>
-      <c r="D97" s="79"/>
-      <c r="E97" s="79"/>
-      <c r="F97" s="78" t="s">
-        <v>386</v>
-      </c>
-      <c r="G97" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H97" s="78" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="98" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B98" s="79"/>
-      <c r="C98" s="78">
-        <v>26</v>
-      </c>
-      <c r="D98" s="79"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="78" t="s">
-        <v>387</v>
-      </c>
-      <c r="G98" s="78" t="s">
-        <v>241</v>
-      </c>
-      <c r="H98" s="78" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="99" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B99" s="79"/>
-      <c r="C99" s="78">
-        <v>27</v>
-      </c>
-      <c r="D99" s="79"/>
-      <c r="E99" s="79"/>
-      <c r="F99" s="78" t="s">
-        <v>389</v>
-      </c>
-      <c r="G99" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H99" s="78" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="100" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B100" s="79"/>
-      <c r="C100" s="78">
-        <v>28</v>
-      </c>
-      <c r="D100" s="84"/>
-      <c r="E100" s="84"/>
-      <c r="F100" s="78" t="s">
-        <v>391</v>
-      </c>
-      <c r="G100" s="78" t="s">
-        <v>392</v>
-      </c>
-      <c r="H100" s="78" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="101" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B101" s="79"/>
-      <c r="C101" s="78">
-        <v>29</v>
-      </c>
-      <c r="D101" s="77" t="s">
-        <v>394</v>
-      </c>
-      <c r="E101" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="F101" s="78" t="s">
-        <v>344</v>
-      </c>
-      <c r="G101" s="78" t="s">
-        <v>214</v>
-      </c>
-      <c r="H101" s="78" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B102" s="79"/>
-      <c r="C102" s="78">
-        <v>30</v>
-      </c>
-      <c r="D102" s="79"/>
-      <c r="E102" s="79"/>
-      <c r="F102" s="78" t="s">
-        <v>396</v>
-      </c>
-      <c r="G102" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="78" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="103" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B103" s="79"/>
-      <c r="C103" s="78">
-        <v>31</v>
-      </c>
-      <c r="D103" s="84"/>
-      <c r="E103" s="84"/>
-      <c r="F103" s="78" t="s">
-        <v>398</v>
-      </c>
-      <c r="G103" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H103" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="104" spans="2:8" ht="36" x14ac:dyDescent="0.15">
-      <c r="B104" s="79"/>
-      <c r="C104" s="78">
-        <v>32</v>
-      </c>
-      <c r="D104" s="77" t="s">
-        <v>399</v>
-      </c>
-      <c r="E104" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="F104" s="78" t="s">
-        <v>400</v>
-      </c>
-      <c r="G104" s="78" t="s">
-        <v>293</v>
-      </c>
-      <c r="H104" s="78" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="105" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B105" s="84"/>
-      <c r="C105" s="78">
-        <v>33</v>
-      </c>
-      <c r="D105" s="84"/>
-      <c r="E105" s="84"/>
-      <c r="F105" s="78" t="s">
-        <v>402</v>
-      </c>
-      <c r="G105" s="78" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B106" s="78" t="s">
-        <v>403</v>
-      </c>
-      <c r="C106" s="78">
-        <v>1</v>
-      </c>
-      <c r="D106" s="78" t="s">
-        <v>404</v>
-      </c>
-      <c r="E106" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F106" s="78" t="s">
-        <v>405</v>
-      </c>
-      <c r="G106" s="78" t="s">
-        <v>406</v>
-      </c>
-      <c r="H106" s="78" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="107" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B107" s="88" t="s">
-        <v>130</v>
-      </c>
-      <c r="C107" s="78">
-        <v>1</v>
-      </c>
-      <c r="D107" s="78" t="s">
-        <v>404</v>
-      </c>
-      <c r="E107" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F107" s="78" t="s">
-        <v>405</v>
-      </c>
-      <c r="G107" s="88" t="s">
-        <v>408</v>
-      </c>
-      <c r="H107" s="78" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="108" spans="2:8" ht="24" x14ac:dyDescent="0.15">
-      <c r="B108" s="88" t="s">
-        <v>410</v>
-      </c>
-      <c r="C108" s="78">
-        <v>1</v>
-      </c>
-      <c r="D108" s="78" t="s">
-        <v>404</v>
-      </c>
-      <c r="E108" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="F108" s="78" t="s">
-        <v>318</v>
-      </c>
-      <c r="G108" s="88" t="s">
-        <v>411</v>
-      </c>
-      <c r="H108" s="78" t="s">
-        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -11326,7 +10656,7 @@
     <mergeCell ref="E20:E33"/>
     <mergeCell ref="D50:D64"/>
   </mergeCells>
-  <phoneticPr fontId="13"/>
+  <phoneticPr fontId="11"/>
   <hyperlinks>
     <hyperlink ref="B8" r:id="rId1" xr:uid="{91B7AF32-3FEE-4B49-8335-04E83D85BC19}"/>
   </hyperlinks>
